--- a/Кнопочные.xlsx
+++ b/Кнопочные.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="22695" windowHeight="13740"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>ОАО "Удмуртнефть" Кнопочные запуски на дату:</t>
   </si>
@@ -76,221 +76,245 @@
     <t>Скважины, не запущенные на дату</t>
   </si>
   <si>
+    <t>Киенгопское</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>Оптим.</t>
+  </si>
+  <si>
+    <t>УОЭРП - ЭЦН125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС:  Ожидание поставки оборудования УОЭРП - ЭЦН125. 
+</t>
+  </si>
+  <si>
+    <t>Гремихинское</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>Перех-приобщ</t>
+  </si>
+  <si>
+    <t>ТНМ-25-225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Увеличение продолжительности работ на скв 1299 доп.работы (установка желонок).		
+Снижение % обводнености на скв. Риск прорыва воды от закачки. Отмена мероприятия.
+ЦДНГ: дополнительные работы по скважине №1299 (повторный СПО насоса)
+</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>Доп.перф.</t>
+  </si>
+  <si>
+    <t>ЭЦН-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Привлечение бр на Ремонт отказной скв.186 режим 14,9т/545м3.			
+ Нет готовности - доп перф (Р изб)			
+</t>
+  </si>
+  <si>
+    <t>Мишкинское</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>РИР</t>
+  </si>
+  <si>
+    <t>В рем. под бригадой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЭЦН-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Изменение очередности в постановки бр со скв 4330 Дострел, в связи с не готовностью скв 334 (нет свободного тяж подъемника для срыва оборудования ОПИ (мокрый контакт)
+</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>На ВНР</t>
+  </si>
+  <si>
+    <t>ОРЗ и Д</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: ОРЗиД. остановка по наг фонду 9.04
+ЦДНГ: увеличение времени спуска ЭЦН скв №233 
+</t>
+  </si>
+  <si>
+    <t>Кезское</t>
+  </si>
+  <si>
+    <t>3286</t>
+  </si>
+  <si>
+    <t>ОПЗ</t>
+  </si>
+  <si>
+    <t>ЭЦН-45-1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Увеличение продолжительности ремонта на скв 3329 вывод из б/д (ожид партии ГИС для ГК,ЛМ - изменение плана работ).
+ Отсутсвие подъездных путей на скв 3286 ГТМ ОПЗ.				
+ЦДНГ: Не смогли поставить бригаду. Размыло траншею. Смена графика движения на свк№3237
+</t>
+  </si>
+  <si>
+    <t>Лудошурское</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>ЭЦН-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Отмена ГТМ по причине риска непрохождения ГНО по э/к.			
+</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: отсутсвие оборудования (хомут) для подъема  установки наземной управляемая ППД
+ЦДНГ: отсутсвие оборудования (хомут) ддля подъема  УНУ ППД
+</t>
+  </si>
+  <si>
     <t>Красногорское</t>
   </si>
   <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>РИР</t>
-  </si>
-  <si>
-    <t>В рем. под бригадой</t>
-  </si>
-  <si>
-    <t>НГН-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Не смогли извлечь нижний пакер. ОТСКОК (план отскок)
-ЦДНГ: Не смогли извлечь нижний пакер. ОТСКОК (планировали отскок)
+    <t>2574</t>
+  </si>
+  <si>
+    <t>НГН-2-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Доп.работы - СПО ГВЖ (очистка забоя) на пред.скв 2418 ОПЗ.			
+ЦДНГ: Отставание от графика бр.ЗАО "КРС" 402. Увеличение продолжительности ремонта на скв.2624 ППД ГИС,ВПП (доп. закачка ВУС+глинистого раствора).(2624-2418-2574)
+скв.2574 РИР.(доп.работы:закачка РАСПО для срыва 2ПО.ВП-негерм,доп.раб:ГИС ОГК неинформативен повторная ГИС ОГК,ОПП).
 </t>
   </si>
   <si>
-    <t>Мишкинское</t>
-  </si>
-  <si>
-    <t>318</t>
+    <t>480</t>
+  </si>
+  <si>
+    <t>Реконстр.</t>
+  </si>
+  <si>
+    <t>В рем. в ож. доп. мер. по базовому</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: осложнений при проходке визейского объекта - поглощения и проявления.
+14.04 забой по скважине 1706м,с глубины 1685м вскрыта зона поглощения интенсивностью 4м3/час.   
+Ожидаемые даты: окончания бурения 23.04, дата начала освоения 29.04, окончание освоения 05.05, запуск кнопкой 06.05, запуск с ВНР 11.05
+</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Ликв.авар.</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: отсутствие инфраструктуры (в/л до ГЗУ)
+ЦДНГ: отсутствие системы  нефтесбора от устья до ГЗУ
+</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>ЭЦН-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Сокращение  объемов ПВР по результатам ГИС скв 1565 Дострел.			
+</t>
+  </si>
+  <si>
+    <t>XXXх</t>
+  </si>
+  <si>
+    <t>3203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦДНГ: Актуализация графика движения бригады. Дата постановки бригады 24.04.2017г
+</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Увеличение продолжительности времени и объема ГИС Сваб.на скв.1374 Дострел. 
+УСТиС: Смена д-105(нет проходки,)-17ч
+</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>ЭЦН-125-1400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: отмена ГТМ по причине снижения обводненности скв
+ЦДНГ: отмена ГТМ по причине снижения обводненности
+</t>
+  </si>
+  <si>
+    <t>Чутырское</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Увеличение продолжительности ремонта - ожид м/жа ЭЦН на пред. скв 1896 Дострел, внеплановая постановка на скв. 1030 Чутырского м-ия(РИР воды). 			
+ЦДНГ: Изменение графика движения бр.409 ЗАО КРС - внеплановая постановка на скв. 1030 Чутырского м-ия(ЦДНГ-2, РИР воды). Постановка бригады УД-КРС 21.04.17
+</t>
+  </si>
+  <si>
+    <t>Ельниковское</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Увеличение продолжительности ремонта на скв 3560 Дострел - дополнительный объем заливки
+УСТиС: Перемонтаж ПАРС-40 + п/мостки- 16 час
+ЦДНГ: Увеличение продолжительности ремонта на скв 3560 Дострел - дополнительный объем -негермет забоя-доп.забоя
+</t>
+  </si>
+  <si>
+    <t>План запусков на 28.04.17</t>
+  </si>
+  <si>
+    <t>418</t>
   </si>
   <si>
     <t>В ож.ТКРС</t>
   </si>
   <si>
-    <t>НН-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Не смогли сорвать пакер. Ожид тяжелого подъемника.ОТСКОК.
-ЦДНГ: съезд со скважины 318 раньше запланированного срока, не смогли сорвать пакер
-</t>
-  </si>
-  <si>
-    <t>Киенгопское</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>НГН-2-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: доп работы по извлечению фондового 2ПО, принято решение по заливке цементом, вместо установки ВП-118 по результатам ГИС.
-УСТиС: 13,5ч-СПО ИЛ (СПГ)Лов работы (не доход ИЛ(ИПГ) до 2ПО 3,35м) Промывка.Не заловились
-12,5ч-СПО внутр труболовки. Спуск торцевой печати.
-13,5ч-Промывка, подъем печати, СПО магнита.; 2
-2ч-Закачка ПАА. Опр-е приесмист.
-19,5ч-Закачка ПАА.Закачка гл р-ра.Опред приемист.разрядка скв Р=40/5атм(2ч);
-4ч-Опред приемистости, завоз тех.воды Y=1,25г/см3
-39ч-СПО Д-105, СПО шаблона124	
-9ч-Отклонение от норм при свабированиии	
-</t>
-  </si>
-  <si>
-    <t>Лозолюкско-Зуринское</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>Доп.перф.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПТО: Изменение графика движения бригады 452 для равномерности ПФ по фонду ГТМ, скв. 1123 поменяли со скв. 1201
-ЦИТС: Изменение графика движения бригады 452 скв. 1123 поменяли очередность со скв. 1201, в связи с бездорожьем. 		
-ЦДНГ: Изменение графика движения бригады 452  скв. 1123 поменяли со скв. 1201.скв 1201 к.49 в конце марта бездорожье
-</t>
-  </si>
-  <si>
-    <t>Ю.Киенгопское</t>
-  </si>
-  <si>
-    <t>361Р</t>
-  </si>
-  <si>
-    <t>На ВНР по иному ГТМ</t>
-  </si>
-  <si>
-    <t>ЭЦН-250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: По результатам ГИС получен профиль притока ИП№1-5%, ИП№2-95%, по результатам поинтервального свабирования приток воды с ИП№1. Принято решение отсечь визей полностью и провести ПВЛГ на башкир.
-УСТиС: 3ч-Превышение норм при ГИС: ОХНП АКЦ;
-7ч-отклонение от норм при свабировании;
-</t>
-  </si>
-  <si>
-    <t>Гремихинское</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>Перех-приобщ</t>
-  </si>
-  <si>
-    <t>ТНМ-25-225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПТО: Уменьшение продолжительности и объемов свабирования на скв 469.
-УСТиС: 73 час - доп. работы: закачка ПБР-25 м3 до Р-100 атм + сваб (приток воды). СПО ФРК-122 проработка Э/К. СПО шаблона 122 мм -20 м. СПО фондового 2х ПО-сваб. Расхаживание фондового 2хПО-122 с промывкой.
-ЦДНГ: корректировка графика движения бригады №1 ИНК (уменьшение объемов свабирования скв №469)
-ЦИТС: Уменьшение продолжительности и объемов свабирования на скв 469.
-Переезд со скв. не смогли поднять 2-х пак оборуд
-</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>ЭЦН-80-1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Остановка согласно графику.
-Доп.работы (ОПЗ на упорных пакерах).
-ЦДНГ: переезд на скв. 9.03.17
-</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>НН-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Сокращение объёмов ПВР по результатам ГИС на скв.1535			
-УСТиС: Ликвидадация аварии(полет г/з ПЭД)-27ч
-ЦДНГ: Постановка бригады 06.03.17
-</t>
-  </si>
-  <si>
-    <t>Чутырское</t>
-  </si>
-  <si>
-    <t>1896</t>
-  </si>
-  <si>
-    <t>ЭЦН-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПТО: Скважина 1896 исключена из графика в связи с восстановлением дебита, снижение потенциала от гтм, продолжить мониторинг, рассмотреть на следующий месяц
-ЦДНГ: Скважина 1896 исключена из графика в связи с восстановлением дебита, снижение потенциала от гтм, продолжить мониторинг, рассмотреть на следующий месяц
-ЦИТС: В связи с увеличением дебита скв.1896 (остановочный 6,4т/сут) – снижение потенциала ГТМ, изменение графика движения бр.ТКРС (переезд на след. скв.2748 Доп.перф.).			
-ОТКРС: в связи с увеличением дебита по скв.1896 (ДП, остановочный 4,3т/сут) – снижение потенциала под гтм, график движения бригады №402 поменяем. после скв.1876 переезд на следующую по графику скважину 2748 (ДП остановочный 3,2т/сут)
-НЗ подписан, план работ подписан, дорога готова.
-</t>
-  </si>
-  <si>
-    <t>Лиственское</t>
-  </si>
-  <si>
-    <t>4083</t>
-  </si>
-  <si>
-    <t>НВ-44 / ЭЦН-60-1400. Потребность в 2хПО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Уменьшение работ по скв.4031 сокращение работ по углублению забоя.			
-УСТиС: Доп.промывка(при свабе)-6ч
-ЦДНГ: Сокращение времени ремонта на скв. 4031
-</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>ОПЗ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПТО: Задержка на предыдущей скв.490 Киенгопского м/н доп работы по извлечению фондового 2ПО, принято решение по заливке цементом, вместо установки ВП-118 по результатам ГИС.
-ЦИТС: Увеличение продолжительности ремонта на пред скв.490 доп работы по извлечению фондового 2ПО, принято решение по заливке цементом, вместо установки ВП-118 по результатам ГИС.
-</t>
-  </si>
-  <si>
-    <t>План запусков на 21.03.17</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>ЭЦН-60-1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Замена скважины № 351.
-Лучший кандидат. Ремонт аналогичный. 
-ЦДНГ: Изменение графика КРС
-</t>
-  </si>
-  <si>
-    <t>Ельниковское</t>
-  </si>
-  <si>
-    <t>4160</t>
-  </si>
-  <si>
-    <t>НГН-2-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Привлечение бр на отказной фонд скв 3605 (16т/с)
-ЦДНГ: Не поставлены бригады по фонду ГТМ в связи проведением ремонта на базовом фонде скв 3605-16тн
-</t>
-  </si>
-  <si>
-    <t>Котовское</t>
-  </si>
-  <si>
-    <t>236Г</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЦИТС: Привлечение бр на отказной фонд скв 2773 (1,2т/с). Изменение графика движения бр.ТКРСпоменяли со скв 372, для равномерности ПФ по фонду ГТМ. 			
-ЦДНГ: Не поставлены бригады по фонду ГТМ в связи с изменением графика движения поменяли с 372скв
+    <t>ТНМ-С25-175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦИТС: Ожидание освобождения тяж подъемника. Нормализация забоя (авар оборуд)
 </t>
   </si>
   <si>
@@ -978,16 +1002,16 @@
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="31">
-        <v>42815</v>
+        <v>42853</v>
       </c>
       <c r="Q1" s="31">
-        <v>42815</v>
+        <v>42853</v>
       </c>
       <c r="R1" s="31">
-        <v>42815</v>
+        <v>42853</v>
       </c>
       <c r="S1" s="31">
-        <v>42815</v>
+        <v>42853</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -1261,7 +1285,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="13" t="s">
         <v>20</v>
@@ -1272,248 +1296,230 @@
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="17">
-        <v>42784</v>
+        <v>42831</v>
       </c>
       <c r="G9" s="18">
-        <v>42784</v>
+        <v>42831</v>
       </c>
       <c r="H9" s="17">
-        <v>42799</v>
-      </c>
-      <c r="I9" s="18"/>
+        <v>42834</v>
+      </c>
+      <c r="I9" s="18">
+        <v>42837</v>
+      </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="19">
-        <v>42784</v>
-      </c>
+      <c r="K9" s="19"/>
       <c r="L9" s="17"/>
       <c r="M9" s="19"/>
       <c r="N9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="20">
-        <v>1200</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O9" s="20"/>
       <c r="P9" s="21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="22">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="R9" s="23">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="17">
-        <v>42792</v>
+        <v>42828</v>
       </c>
       <c r="G10" s="18">
-        <v>42792</v>
+        <v>42828</v>
       </c>
       <c r="H10" s="17">
-        <v>42802</v>
+        <v>42836</v>
       </c>
       <c r="I10" s="18">
-        <v>42807</v>
-      </c>
-      <c r="J10" s="17">
-        <v>42792</v>
-      </c>
-      <c r="K10" s="19">
-        <v>42792</v>
-      </c>
+        <v>42843</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="17"/>
       <c r="M10" s="19"/>
       <c r="N10" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="20">
-        <v>1100</v>
+        <v>1020</v>
       </c>
       <c r="P10" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R10" s="23">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="S10" s="20"/>
       <c r="T10" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="237" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="17">
-        <v>42798</v>
+        <v>42829</v>
       </c>
       <c r="G11" s="18">
-        <v>42798</v>
+        <v>42829</v>
       </c>
       <c r="H11" s="17">
-        <v>42807</v>
+        <v>42837</v>
       </c>
       <c r="I11" s="18">
-        <v>42812</v>
-      </c>
-      <c r="J11" s="17">
-        <v>42798</v>
-      </c>
-      <c r="K11" s="19">
-        <v>42798</v>
-      </c>
+        <v>42842</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="17"/>
       <c r="M11" s="19"/>
       <c r="N11" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="20">
-        <v>1020</v>
+        <v>1150</v>
       </c>
       <c r="P11" s="21">
         <v>4</v>
       </c>
       <c r="Q11" s="22">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="R11" s="23">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="S11" s="20"/>
       <c r="T11" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" s="17">
-        <v>42800</v>
+        <v>42831</v>
       </c>
       <c r="G12" s="18">
-        <v>42800</v>
+        <v>42831</v>
       </c>
       <c r="H12" s="17">
-        <v>42808</v>
+        <v>42843</v>
       </c>
       <c r="I12" s="18">
-        <v>42813</v>
+        <v>42850</v>
       </c>
       <c r="J12" s="17">
-        <v>42812.000694444403</v>
+        <v>42836</v>
       </c>
       <c r="K12" s="19">
-        <v>42812</v>
+        <v>42836</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="19"/>
       <c r="N12" s="15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O12" s="20">
-        <v>1034</v>
+        <v>1300</v>
       </c>
       <c r="P12" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="22">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R12" s="23">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="S12" s="20"/>
       <c r="T12" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="17">
-        <v>42803</v>
-      </c>
+      <c r="F13" s="17"/>
       <c r="G13" s="18">
-        <v>42803</v>
+        <v>42835</v>
       </c>
       <c r="H13" s="17">
-        <v>42812</v>
+        <v>42843</v>
       </c>
       <c r="I13" s="18">
-        <v>42817</v>
+        <v>42850</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
@@ -1523,16 +1529,16 @@
         <v>42</v>
       </c>
       <c r="O13" s="20">
-        <v>1194</v>
+        <v>1250</v>
       </c>
       <c r="P13" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="22">
         <v>8</v>
       </c>
-      <c r="Q13" s="22">
-        <v>250</v>
-      </c>
       <c r="R13" s="23">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="S13" s="20"/>
       <c r="T13" s="24" t="s">
@@ -1543,7 +1549,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>44</v>
@@ -1554,43 +1560,37 @@
       <c r="D14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="E14" s="16"/>
       <c r="F14" s="17">
-        <v>42798</v>
+        <v>42836</v>
       </c>
       <c r="G14" s="18">
-        <v>42798</v>
+        <v>42836</v>
       </c>
       <c r="H14" s="17">
-        <v>42812</v>
+        <v>42843</v>
       </c>
       <c r="I14" s="18">
-        <v>42818</v>
-      </c>
-      <c r="J14" s="17">
-        <v>42795.000023148103</v>
-      </c>
-      <c r="K14" s="19">
-        <v>42795</v>
-      </c>
+        <v>42848</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="17"/>
       <c r="M14" s="19"/>
       <c r="N14" s="15" t="s">
         <v>47</v>
       </c>
       <c r="O14" s="20">
-        <v>1000</v>
+        <v>1227</v>
       </c>
       <c r="P14" s="21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q14" s="22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R14" s="23">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="S14" s="20"/>
       <c r="T14" s="24" t="s">
@@ -1601,110 +1601,98 @@
       <c r="W14" s="2"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="17">
-        <v>42803</v>
+        <v>42837</v>
       </c>
       <c r="G15" s="18">
-        <v>42803</v>
+        <v>42837</v>
       </c>
       <c r="H15" s="17">
-        <v>42813</v>
+        <v>42844</v>
       </c>
       <c r="I15" s="18">
-        <v>42818</v>
-      </c>
-      <c r="J15" s="17">
-        <v>42803</v>
-      </c>
-      <c r="K15" s="19">
-        <v>42804</v>
-      </c>
+        <v>42849</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="17"/>
       <c r="M15" s="19"/>
       <c r="N15" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O15" s="20">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="P15" s="21">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="22">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="R15" s="23">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S15" s="20"/>
       <c r="T15" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="17">
-        <v>42802</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="18">
-        <v>42802</v>
+        <v>42835</v>
       </c>
       <c r="H16" s="17">
-        <v>42814</v>
+        <v>42845</v>
       </c>
       <c r="I16" s="18">
-        <v>42819</v>
-      </c>
-      <c r="J16" s="17">
-        <v>42800</v>
-      </c>
+        <v>42852</v>
+      </c>
+      <c r="J16" s="17"/>
       <c r="K16" s="19"/>
       <c r="L16" s="17"/>
       <c r="M16" s="19"/>
       <c r="N16" s="15" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O16" s="20">
-        <v>1250</v>
+        <v>1130</v>
       </c>
       <c r="P16" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="R16" s="23">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S16" s="20"/>
       <c r="T16" s="24" t="s">
@@ -1715,7 +1703,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:24" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="13" t="s">
         <v>55</v>
@@ -1724,39 +1712,45 @@
         <v>56</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="16"/>
       <c r="F17" s="17">
-        <v>42806</v>
+        <v>42833</v>
       </c>
       <c r="G17" s="18">
-        <v>42806</v>
+        <v>42833</v>
       </c>
       <c r="H17" s="17">
-        <v>42814</v>
+        <v>42845</v>
       </c>
       <c r="I17" s="18">
-        <v>42819</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
+        <v>42851</v>
+      </c>
+      <c r="J17" s="17">
+        <v>42835</v>
+      </c>
+      <c r="K17" s="19">
+        <v>42835</v>
+      </c>
       <c r="L17" s="17"/>
       <c r="M17" s="19"/>
       <c r="N17" s="15" t="s">
         <v>57</v>
       </c>
       <c r="O17" s="20">
-        <v>1211</v>
+        <v>1180</v>
       </c>
       <c r="P17" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="22">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="R17" s="23">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="S17" s="20"/>
       <c r="T17" s="24" t="s">
@@ -1767,56 +1761,56 @@
       <c r="W17" s="2"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" s="16" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F18" s="17">
-        <v>42803</v>
+        <v>42716</v>
       </c>
       <c r="G18" s="18">
-        <v>42803</v>
+        <v>42716</v>
       </c>
       <c r="H18" s="17">
-        <v>42815</v>
+        <v>42846</v>
       </c>
       <c r="I18" s="18">
-        <v>42820</v>
+        <v>42848</v>
       </c>
       <c r="J18" s="17">
-        <v>42800.006944444402</v>
-      </c>
-      <c r="K18" s="19">
-        <v>42800</v>
-      </c>
+        <v>42716</v>
+      </c>
+      <c r="K18" s="19"/>
       <c r="L18" s="17"/>
       <c r="M18" s="19"/>
       <c r="N18" s="15" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="O18" s="20">
-        <v>1095</v>
+        <v>1200</v>
       </c>
       <c r="P18" s="21">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="22">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="R18" s="23">
-        <v>84</v>
-      </c>
-      <c r="S18" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <v>0</v>
+      </c>
       <c r="T18" s="24" t="s">
         <v>62</v>
       </c>
@@ -1825,11 +1819,9 @@
       <c r="W18" s="2"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:24" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>63</v>
       </c>
@@ -1838,151 +1830,173 @@
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="17">
-        <v>42807</v>
+        <v>42843</v>
       </c>
       <c r="G19" s="18">
-        <v>42807</v>
+        <v>42843</v>
       </c>
       <c r="H19" s="17">
-        <v>42815</v>
+        <v>42847</v>
       </c>
       <c r="I19" s="18">
-        <v>42820</v>
+        <v>42850</v>
       </c>
       <c r="J19" s="17"/>
       <c r="K19" s="19"/>
       <c r="L19" s="17"/>
       <c r="M19" s="19"/>
-      <c r="N19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="20">
-        <v>1415</v>
-      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="22">
-        <v>70</v>
-      </c>
-      <c r="R19" s="23">
-        <v>90</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="T19" s="24"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26">
-        <v>11</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="26">
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18">
+        <v>42837</v>
+      </c>
+      <c r="H20" s="17">
+        <v>42847</v>
+      </c>
+      <c r="I20" s="18">
+        <v>42854</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" s="20">
+        <v>1150</v>
+      </c>
+      <c r="P20" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>8</v>
+      </c>
+      <c r="R20" s="23">
         <v>57</v>
       </c>
-      <c r="Q20" s="26">
-        <v>719</v>
-      </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="2"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="24" t="s">
+        <v>66</v>
+      </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17">
+        <v>42842</v>
+      </c>
+      <c r="G21" s="18">
+        <v>42842</v>
+      </c>
+      <c r="H21" s="17">
+        <v>42848</v>
+      </c>
+      <c r="I21" s="18">
+        <v>42853</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="24"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="1"/>
     </row>
-    <row r="22" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="17">
+        <v>42837</v>
+      </c>
       <c r="G22" s="18">
-        <v>42806</v>
+        <v>42837</v>
       </c>
       <c r="H22" s="17">
-        <v>42816</v>
+        <v>42848</v>
       </c>
       <c r="I22" s="18">
-        <v>42821</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="19"/>
+        <v>42855</v>
+      </c>
+      <c r="J22" s="17">
+        <v>42835</v>
+      </c>
+      <c r="K22" s="19">
+        <v>42835</v>
+      </c>
       <c r="L22" s="17"/>
       <c r="M22" s="19"/>
       <c r="N22" s="15" t="s">
         <v>68</v>
       </c>
       <c r="O22" s="20">
-        <v>1090</v>
+        <v>1290</v>
       </c>
       <c r="P22" s="21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="22">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="R22" s="23">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="S22" s="20"/>
       <c r="T22" s="24" t="s">
@@ -1993,428 +2007,610 @@
       <c r="W22" s="2"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>23</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="17">
-        <v>42809</v>
+        <v>42844</v>
       </c>
       <c r="G23" s="18">
-        <v>42809</v>
+        <v>42844</v>
       </c>
       <c r="H23" s="17">
-        <v>42816</v>
+        <v>42848</v>
       </c>
       <c r="I23" s="18">
-        <v>42820</v>
-      </c>
-      <c r="J23" s="17">
-        <v>42811</v>
-      </c>
-      <c r="K23" s="19">
-        <v>42811</v>
-      </c>
+        <v>42851</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="17"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="20">
-        <v>1156</v>
-      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="21">
-        <v>7</v>
-      </c>
-      <c r="Q23" s="22">
-        <v>13</v>
-      </c>
-      <c r="R23" s="23">
-        <v>37</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="20"/>
-      <c r="T23" s="24" t="s">
-        <v>73</v>
-      </c>
+      <c r="T23" s="24"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F24" s="17">
-        <v>42809</v>
+        <v>42840</v>
       </c>
       <c r="G24" s="18">
-        <v>42809</v>
+        <v>42840</v>
       </c>
       <c r="H24" s="17">
-        <v>42816</v>
+        <v>42848</v>
       </c>
       <c r="I24" s="18">
-        <v>42820</v>
+        <v>42854</v>
       </c>
       <c r="J24" s="17">
-        <v>42815</v>
+        <v>42849</v>
       </c>
       <c r="K24" s="19">
-        <v>42815</v>
+        <v>42849</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="19"/>
       <c r="N24" s="15" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="O24" s="20">
-        <v>1034</v>
+        <v>1240</v>
       </c>
       <c r="P24" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="22">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="R24" s="23">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="S24" s="20"/>
       <c r="T24" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="1"/>
     </row>
-    <row r="25" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26">
-        <v>3</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="26">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="26">
-        <v>84</v>
-      </c>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="2"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17">
+        <v>42843</v>
+      </c>
+      <c r="G25" s="18">
+        <v>42843</v>
+      </c>
+      <c r="H25" s="17">
+        <v>42849</v>
+      </c>
+      <c r="I25" s="18">
+        <v>42854</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="24"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="B26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="17">
+        <v>42835</v>
+      </c>
+      <c r="G26" s="18">
+        <v>42835</v>
+      </c>
+      <c r="H26" s="17">
+        <v>42850</v>
+      </c>
+      <c r="I26" s="18">
+        <v>42855</v>
+      </c>
+      <c r="J26" s="17">
+        <v>42836</v>
+      </c>
+      <c r="K26" s="19">
+        <v>42836</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="20">
+        <v>1150</v>
+      </c>
+      <c r="P26" s="21">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>50</v>
+      </c>
+      <c r="R26" s="23">
+        <v>93</v>
+      </c>
+      <c r="S26" s="20"/>
+      <c r="T26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17">
+        <v>42845</v>
+      </c>
+      <c r="G27" s="18">
+        <v>42845</v>
+      </c>
+      <c r="H27" s="17">
+        <v>42850</v>
+      </c>
+      <c r="I27" s="18">
+        <v>42853</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17">
+        <v>42846</v>
+      </c>
+      <c r="G28" s="18">
+        <v>42846</v>
+      </c>
+      <c r="H28" s="17">
+        <v>42851</v>
+      </c>
+      <c r="I28" s="18">
+        <v>42854</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="17">
+        <v>42843</v>
+      </c>
+      <c r="G29" s="18">
+        <v>42843</v>
+      </c>
+      <c r="H29" s="17">
+        <v>42851</v>
+      </c>
+      <c r="I29" s="18">
+        <v>42857</v>
+      </c>
+      <c r="J29" s="17">
+        <v>42851</v>
+      </c>
+      <c r="K29" s="19">
+        <v>42851</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="20">
+        <v>1069</v>
+      </c>
+      <c r="P29" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>138</v>
+      </c>
+      <c r="R29" s="23">
+        <v>92</v>
+      </c>
+      <c r="S29" s="20"/>
+      <c r="T29" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="29">
-        <v>40494</v>
-      </c>
-      <c r="D27" s="37" t="s">
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="1"/>
+    </row>
+    <row r="30" spans="1:24" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-    </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="C30" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="17">
+        <v>42839</v>
+      </c>
+      <c r="G30" s="18">
+        <v>42839</v>
+      </c>
+      <c r="H30" s="17">
+        <v>42851</v>
+      </c>
+      <c r="I30" s="18">
+        <v>42857</v>
+      </c>
+      <c r="J30" s="17">
+        <v>42846.000694444403</v>
+      </c>
+      <c r="K30" s="19">
+        <v>42846</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="20">
+        <v>1200</v>
+      </c>
+      <c r="P30" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>8</v>
+      </c>
+      <c r="R30" s="23">
+        <v>59</v>
+      </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
       <c r="X30" s="1"/>
     </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="B31" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="17">
+        <v>42844</v>
+      </c>
+      <c r="G31" s="18">
+        <v>42844</v>
+      </c>
+      <c r="H31" s="17">
+        <v>42851</v>
+      </c>
+      <c r="I31" s="18">
+        <v>42855</v>
+      </c>
+      <c r="J31" s="17">
+        <v>42849.003472222197</v>
+      </c>
+      <c r="K31" s="19">
+        <v>42849</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="20">
+        <v>908</v>
+      </c>
+      <c r="P31" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>26</v>
+      </c>
+      <c r="R31" s="23">
+        <v>55</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
       <c r="X31" s="1"/>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26">
+        <v>23</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="26">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>978</v>
+      </c>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
       <c r="X32" s="1"/>
     </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
+      <c r="B33" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
+      <c r="B34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="17">
+        <v>42846</v>
+      </c>
+      <c r="G34" s="18">
+        <v>42846</v>
+      </c>
+      <c r="H34" s="17">
+        <v>42854</v>
+      </c>
+      <c r="I34" s="18">
+        <v>42861</v>
+      </c>
+      <c r="J34" s="17">
+        <v>42795.000023148103</v>
+      </c>
+      <c r="K34" s="19">
+        <v>42795</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="20">
+        <v>1150</v>
+      </c>
+      <c r="P34" s="21">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="22">
+        <v>15</v>
+      </c>
+      <c r="R34" s="23">
+        <v>76</v>
+      </c>
+      <c r="S34" s="20"/>
+      <c r="T34" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
       <c r="X34" s="1"/>
     </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26">
+        <v>1</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>15</v>
+      </c>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
       <c r="X35" s="1"/>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,16 +2639,32 @@
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
     </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="B37" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="29">
+        <v>40494</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2499,8 +2711,8 @@
   <mergeCells count="13">
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="D37:I37"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="B5:B6"/>
